--- a/数据整理/stocks/A股/上证主板/600837-海通证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600837-海通证券.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3376,7 +3377,6 @@
           <t>人保双利优选混合C</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>23.13</t>
@@ -3392,6 +3392,1696 @@
       </c>
       <c r="H37" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>320.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>21.1203</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>238.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15.7642</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.6806</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0131</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8944</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008590</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7165</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5599</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4586</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008591</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4152</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4040</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3437</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>45.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2556</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1089</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0476</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9986</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9792</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6706</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6130</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5959</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5371</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5309</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3857</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3757</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2530</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2119</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005486</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>61.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>97.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006547</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>65.32</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000743</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>红塔红土盛世普益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>63.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>510030</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华宝上证180价值ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏金融ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>501060</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>510690</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴业上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005487</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>61.76</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>501061</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006195</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006548</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>65.32</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600837-海通证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600837-海通证券.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5087,4 +5088,2528 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>338.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>22.6788</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>226.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15.3225</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>138.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.0468</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.3221</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2923</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8254</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7615</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7113</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5007</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3402</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3240</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>40.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3065</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1151</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0678</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0481</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9471</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8716</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6903</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>22.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5771</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5716</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5055</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5043</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3533</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3212</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>512650</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富中证长三角一体化发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>96.18</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3049</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2829</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>74.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2268</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2228</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1807</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005486</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>62.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>162213</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰达宏利沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002837</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007939</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007143</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006547</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000743</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>红塔红土盛世普益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>62.24</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004480</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华宝智慧产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002224</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中邮绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>58.64</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>95.94</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>165521</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>信诚中证800金融指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003548</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰达宏利沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>97.25</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007144</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>510030</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华宝上证180价值ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏金融ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012221</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>67.97</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>501060</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>160814</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长盛中证金融地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012222</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>67.97</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>510690</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>兴业上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>96.21</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005487</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>平安量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>62.83</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>501061</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006548</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600837-海通证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600837-海通证券.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7612,4 +7613,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>65</v>
+      </c>
+      <c r="D2" t="n">
+        <v>74.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3" t="n">
+        <v>65.98999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>52.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600837-海通证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600837-海通证券.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7621,7 +7622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7632,17 +7633,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7652,14 +7673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>65</v>
-      </c>
-      <c r="D2" t="n">
-        <v>74.11</v>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>358.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>23.0906</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -7668,14 +7711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>43</v>
-      </c>
-      <c r="D3" t="n">
-        <v>65.98999999999999</v>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>238.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15.4031</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -7684,14 +7749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>36</v>
-      </c>
-      <c r="D4" t="n">
-        <v>52.48</v>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.7238</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -7700,13 +7787,1973 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>42.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7640</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0846</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0465</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7713</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7206</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4693</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4066</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>40.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3145</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3139</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1523</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0435</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9624</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.82</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9535</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8992</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7392</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5648</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5088</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.54</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5043</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3311</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3026</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2888</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001706</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安积极回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2626</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2372</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1602</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005486</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>66.84</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012221</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000743</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>红塔红土盛世普益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>97.13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>165521</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>信诚中证800金融指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏金融ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009475</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇丰晋信慧盈混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>27.28</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>510030</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华宝上证180价值ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012222</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006547</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>62.94</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005487</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>66.84</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006548</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>62.94</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>52</v>
+      </c>
+      <c r="D2" t="n">
+        <v>70.51000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>65</v>
+      </c>
+      <c r="D3" t="n">
+        <v>74.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>65.98999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>52.48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>39</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>59.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600837-海通证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600837-海通证券.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9652,7 +9653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9663,17 +9664,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9683,14 +9704,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>52</v>
-      </c>
-      <c r="D2" t="n">
-        <v>70.51000000000001</v>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>322.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>21.1455</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -9699,14 +9742,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>65</v>
-      </c>
-      <c r="D3" t="n">
-        <v>74.11</v>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>230.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15.0958</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -9715,14 +9780,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>43</v>
-      </c>
-      <c r="D4" t="n">
-        <v>65.98999999999999</v>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.1358</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -9731,14 +9818,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>36</v>
-      </c>
-      <c r="D5" t="n">
-        <v>52.48</v>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>42.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7939</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -9747,13 +9856,1611 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0072</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7916</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4097</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2460</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1532</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0915</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>36.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0016</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9262</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9038</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8685</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8624</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8002</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7449</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5138</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4932</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4468</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3360</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3065</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2831</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2636</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>72.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2329</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>66.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>72.19</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>399001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中海上证50指数增强</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>96.69</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>63.92</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏金融ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>63.92</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>43</v>
+      </c>
+      <c r="D2" t="n">
+        <v>62.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>52</v>
+      </c>
+      <c r="D3" t="n">
+        <v>70.51000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>65</v>
+      </c>
+      <c r="D4" t="n">
+        <v>74.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>43</v>
+      </c>
+      <c r="D5" t="n">
+        <v>65.98999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>36</v>
+      </c>
+      <c r="D6" t="n">
+        <v>52.48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>39</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>59.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600837-海通证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600837-海通证券.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11343,7 +11344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11354,17 +11355,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11374,14 +11395,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>43</v>
-      </c>
-      <c r="D2" t="n">
-        <v>62.94</v>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>326.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>19.6577</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -11390,14 +11433,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>52</v>
-      </c>
-      <c r="D3" t="n">
-        <v>70.51000000000001</v>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>228.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>13.7431</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -11406,14 +11471,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>65</v>
-      </c>
-      <c r="D4" t="n">
-        <v>74.11</v>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.8134</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -11422,14 +11509,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>43</v>
-      </c>
-      <c r="D5" t="n">
-        <v>65.98999999999999</v>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4020</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -11438,14 +11547,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>36</v>
-      </c>
-      <c r="D6" t="n">
-        <v>52.48</v>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8360</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -11454,13 +11585,1891 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4236</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3433</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1765</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0650</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>36.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0101</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8295</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8153</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8036</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7543</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7518</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7042</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6118</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4756</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4524</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4070</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012044</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2982</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2773</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2586</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014984</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安中证证券公司C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2586</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2572</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2533</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1870</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>71.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>51.60</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>015178</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013276</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>57.87</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏金融ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013597</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>57.87</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005295</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>诺德天富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>71.56</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>51</v>
+      </c>
+      <c r="D2" t="n">
+        <v>57.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3" t="n">
+        <v>62.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>52</v>
+      </c>
+      <c r="D4" t="n">
+        <v>70.51000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>65</v>
+      </c>
+      <c r="D5" t="n">
+        <v>74.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>43</v>
+      </c>
+      <c r="D6" t="n">
+        <v>65.98999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>36</v>
+      </c>
+      <c r="D7" t="n">
+        <v>52.48</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>39</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>59.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600837-海通证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600837-海通证券.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>57.81</v>
+        <v>54.56</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
-        <v>62.94</v>
+        <v>57.81</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D4" t="n">
-        <v>70.51000000000001</v>
+        <v>62.94</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D5" t="n">
-        <v>74.11</v>
+        <v>70.51000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D6" t="n">
-        <v>65.98999999999999</v>
+        <v>74.11</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D7" t="n">
-        <v>52.48</v>
+        <v>65.98999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>36</v>
+      </c>
+      <c r="D8" t="n">
+        <v>52.48</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>39</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>59.1</v>
       </c>
     </row>
@@ -600,6 +617,1962 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>289.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>18.4554</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>215.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>13.7751</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.0315</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>45.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.9202</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0247</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3435</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0950</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9752</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8176</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7539</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7507</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7296</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7176</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5595</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5540</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5378</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4370</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4186</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012044</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3534</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3354</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3136</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安中证证券公司A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2328</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2307</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012874</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>95.27</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>516730</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛中证证券公司30ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013276</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013597</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.22</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012221</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>76.17</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014984</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安中证证券公司C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012222</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>76.17</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015859</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>宝盈国证证券龙头指数A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015178</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015860</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>宝盈国证证券龙头指数C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>015693</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>015598</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2591,7 +4564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4281,7 +6254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6311,7 +8284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8835,7 +10808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10525,7 +12498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11942,7 +13915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600837-海通证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600837-海通证券.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
-        <v>54.56</v>
+        <v>52.9</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>57.81</v>
+        <v>54.56</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D4" t="n">
-        <v>62.94</v>
+        <v>57.81</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>70.51000000000001</v>
+        <v>62.94</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D6" t="n">
-        <v>74.11</v>
+        <v>70.51000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D7" t="n">
-        <v>65.98999999999999</v>
+        <v>74.11</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D8" t="n">
-        <v>52.48</v>
+        <v>65.98999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1566 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>36</v>
+      </c>
+      <c r="D9" t="n">
+        <v>52.48</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>39</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>59.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>389.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>21.5534</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>229.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12.7187</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>67.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.7461</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.9698</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1250</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7645</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>56.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>19.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6779</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>31.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6758</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2135</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1163</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1114</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9651</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9011</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008591</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6795</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6452</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6215</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008590</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6130</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5529</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4980</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3919</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3739</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3184</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>96.93</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000003</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中海可转换债券 - A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006535</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000004</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中海可转换债券 - C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006536</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003684</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003685</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2170,2608 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>296.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17.5136</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>221.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12.9332</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>76.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.4677</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6637</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3886</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2719</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0541</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9412</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8410</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000311</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>46.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8242</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7150</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6980</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6342</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6280</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5431</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5235</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4926</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4348</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3944</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3501</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012044</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3124</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2995</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001974</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2306</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2305</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2172</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安中证证券公司A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2110</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012874</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015387</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013276</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>95.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>96.80</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516730</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浦银安盛中证证券公司30ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>100.45</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013597</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015388</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012221</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>75.49</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>015598</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>516720</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浦银安盛中证ESG120策略ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003235</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>23.20</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014984</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华安中证证券公司C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>015860</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>宝盈国证证券龙头指数C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>37.79</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>015859</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>宝盈国证证券龙头指数A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>015178</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>37.79</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012222</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>75.49</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003234</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>23.20</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015693</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>015679</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>景顺长城沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2572,7 +6727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4564,7 +8719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6254,7 +10409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8284,7 +12439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10808,7 +14963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12498,7 +16653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13913,1540 +18068,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512880</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>389.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>21.5534</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>512000</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>229.58</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.87</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>12.7187</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>512900</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>67.62</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.7461</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161720</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商中证全指证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>56.46</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.94</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.9698</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>163113</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>申万菱信中证申万证券行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>34.33</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2.1250</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>501016</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国泰中证申万证券行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>22.42</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.7645</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008895</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>申万菱信量化对冲策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.60</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>56.17</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>19.51</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.6779</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161027</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富国中证全指证券公司指数</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>31.56</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.6758</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>512070</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>易方达沪深300非银行金融ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>34.87</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>99.39</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.2135</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001552</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>天弘中证证券保险指数型发起式 A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>28.55</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.96</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.1163</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>159993</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华国证证券龙头ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>15.72</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>97.91</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.07</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.1114</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>501047</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇添富中证全指证券公司指数LOF A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>17.84</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.9651</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>160633</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏华中证全指证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>17.23</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.9011</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008591</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>天弘中证全指证券公司指数C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>12.87</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.6795</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001553</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>天弘中证证券保险指数型发起式 C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>16.50</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.96</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.6452</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>515560</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>建信中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>11.30</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>98.90</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.6215</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008590</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>天弘中证全指证券公司指数A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>11.61</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.6130</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>501048</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>汇添富中证全指证券公司指数LOF C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>10.22</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.5529</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>160625</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>鹏华中证800证券保险指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>13.21</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.4980</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>515010</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华夏中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>98.48</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.3919</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>502010</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>易方达证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.3739</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>160419</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华安中证全指证券公司指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.3184</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>502053</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>长盛中证全指证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1555</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>160516</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>博时中证全指证券公司指数</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1518</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>162102</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>金鹰中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>75.19</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1239</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>510200</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>汇安上证证券ETF</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>8.11</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0884</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>515630</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>鹏华中证800证券保险ETF</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>96.93</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0783</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>515850</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>富国中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>98.94</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0670</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>000003</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>中海可转换债券 - A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>20.28</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0504</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>009750</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>汇安价值蓝筹混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>81.06</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0481</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>512570</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>易方达中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>98.58</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0293</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>006535</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>恒生前海恒锦裕利混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>29.92</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0257</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>000004</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>中海可转换债券 - C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>20.28</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0176</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>006536</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>恒生前海恒锦裕利混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>29.92</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0133</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>005146</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>兴银丰润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>003684</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>汇安丰融灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>90.40</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0065</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>004456</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>兴银消费新趋势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>90.51</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>009751</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>汇安价值蓝筹混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>81.06</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>003685</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>汇安丰融灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>90.40</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>